--- a/public/admin/cfis_bulkupdate.xlsx
+++ b/public/admin/cfis_bulkupdate.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>FFI_EMP_ID</t>
   </si>
@@ -37,16 +37,20 @@
   <si>
     <t>Employee_Last_date</t>
   </si>
+  <si>
+    <t>15-5-2002</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -659,14 +663,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1202,28 +1209,33 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="16.8888888888889" customWidth="1"/>
     <col min="2" max="2" width="17.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="22.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="22.4444444444444" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="3:3">
+      <c r="C2" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/public/admin/cfis_bulkupdate.xlsx
+++ b/public/admin/cfis_bulkupdate.xlsx
@@ -52,7 +52,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,6 +64,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -533,137 +541,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -673,7 +681,10 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1212,7 +1223,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -1223,13 +1234,13 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
